--- a/0000_LabFileFormatting/000_Reactor Spreadsheet Raw/Cap17O Compiled REACTOR THIRTY THREE.xlsx
+++ b/0000_LabFileFormatting/000_Reactor Spreadsheet Raw/Cap17O Compiled REACTOR THIRTY THREE.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\IPL\InstrumentsData\TripleDog 17O\Operating Conditions\Active Reactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F991BF6E-D3AD-4F16-9273-85C1290653FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD649C91-53EC-4A34-8E8D-811136F4CB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="256">
   <si>
     <t>IPL num</t>
   </si>
@@ -778,9 +778,6 @@
     <t>Data_3543 IPL-17O-5771 HH1-4-R33-02 1</t>
   </si>
   <si>
-    <t>Data_3544  HH1-3-R33-01 1</t>
-  </si>
-  <si>
     <t>Data_3546 IPL-17O-5772 IAEA-C1-R33-7 1</t>
   </si>
   <si>
@@ -793,9 +790,6 @@
     <t>PHOSPHATE</t>
   </si>
   <si>
-    <t>Data_3548 IPL-17O-5775 HH1-R33-01 1</t>
-  </si>
-  <si>
     <t>sample stayed overnight in expanded CF</t>
   </si>
   <si>
@@ -811,18 +805,6 @@
     <t>Soil Carbonate</t>
   </si>
   <si>
-    <t>Data_3552 IPL-17O-5780 PB-00-02-09-R32-02 1</t>
-  </si>
-  <si>
-    <t>Data_3553 IPL-17O-5781 PB-00-03-14-R32-01 1</t>
-  </si>
-  <si>
-    <t>Data_3554 IPL-17O-5782 PB-00-03-14-R32-02 1</t>
-  </si>
-  <si>
-    <t>Data_3555 IPL-17O-5783 PB-00-01-09D-R32-01 1</t>
-  </si>
-  <si>
     <t>Data_3556 IPL-17O-5784 HH1-3-R33-01 1</t>
   </si>
   <si>
@@ -833,6 +815,39 @@
   </si>
   <si>
     <t>Data_3559 IPL-17O-5787 IAEA-C1-R33-10 1</t>
+  </si>
+  <si>
+    <t>Data_3558 IPL-17O-5786 IAEA-C1-R33-9 1</t>
+  </si>
+  <si>
+    <t>Data_3544 IPL-17O-5772 HH1-3-R33-01 1</t>
+  </si>
+  <si>
+    <t>Data_3548 IPL-17O-5775 HH1-1-R33-01 1</t>
+  </si>
+  <si>
+    <t>Data_3555 IPL-17O-5783 PB-00-01-09D-R33-01 1</t>
+  </si>
+  <si>
+    <t>Data_3554 IPL-17O-5782 PB-00-03-14-R33-02 1</t>
+  </si>
+  <si>
+    <t>Data_3553 IPL-17O-5781 PB-00-03-14-R33-01 1</t>
+  </si>
+  <si>
+    <t>Data_3552 IPL-17O-5780 PB-00-02-09-R33-02 1</t>
+  </si>
+  <si>
+    <t>Data_3560 IPL-17O-5788 IAEA-C1-R33-11 1</t>
+  </si>
+  <si>
+    <t>Data_3561 IPL-17O-5789 USGS80-R33-4 1</t>
+  </si>
+  <si>
+    <t>Data_3562 IPL-17O-5790 USGS80-R33-05 1</t>
+  </si>
+  <si>
+    <t>d18O is wayy off; sample set in T4 for too long?</t>
   </si>
 </sst>
 </file>
@@ -2206,16 +2221,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Standards!$A$34:$A$36</c:f>
+              <c:f>Standards!$A$34:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5759</c:v>
                 </c:pt>
@@ -2225,15 +2245,21 @@
                 <c:pt idx="2">
                   <c:v>5761</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>5789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5790</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Standards!$AG$34:$AG$36</c:f>
+              <c:f>Standards!$AG$34:$AG$38</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-241.22310009313532</c:v>
                 </c:pt>
@@ -2242,6 +2268,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-217.09621973975413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-277.05717264541096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-225.55283798195003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2341,7 +2373,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="519221976"/>
-        <c:crossesAt val="-250"/>
+        <c:crossesAt val="-300"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -2446,8 +2478,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.13728196384211097"/>
           <c:y val="0.89098169659485649"/>
-          <c:w val="0.8627180496668686"/>
-          <c:h val="7.5251362810417943E-2"/>
+          <c:w val="0.65525792449020792"/>
+          <c:h val="0.10901816202740544"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2774,6 +2806,11 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Standards!$A$32:$A$33</c:f>
@@ -2830,12 +2867,17 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Standards!$A$34:$A$36</c:f>
+              <c:f>Standards!$A$34:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5759</c:v>
                 </c:pt>
@@ -2845,15 +2887,21 @@
                 <c:pt idx="2">
                   <c:v>5761</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>5789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5790</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Standards!$AE$34:$AE$36</c:f>
+              <c:f>Standards!$AE$34:$AE$38</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>12.262099589907473</c:v>
                 </c:pt>
@@ -2862,6 +2910,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.639858971951707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.960802567876627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6516873574400943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3094,8 +3148,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.15534788078497483"/>
           <c:y val="0.88345161854768151"/>
-          <c:w val="0.67990880701956047"/>
-          <c:h val="7.5000524934383209E-2"/>
+          <c:w val="0.80632833304596052"/>
+          <c:h val="0.11654838145231847"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7461,15 +7515,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7499,15 +7553,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8156,11 +8210,11 @@
   <dimension ref="A1:AN209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Z47" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
       <selection pane="topRight" activeCell="B35" sqref="B35"/>
       <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
-      <selection pane="bottomRight" activeCell="AN55" sqref="AN55:AN67"/>
+      <selection pane="bottomRight" activeCell="AJ71" sqref="AJ71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14345,7 +14399,7 @@
         <v>103</v>
       </c>
       <c r="E53" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F53">
         <v>14.443673935206601</v>
@@ -14440,7 +14494,7 @@
         <v>-142.44284992637546</v>
       </c>
       <c r="AJ53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK53">
         <v>33</v>
@@ -14469,7 +14523,7 @@
         <v>98</v>
       </c>
       <c r="E54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F54">
         <v>16.6173026530358</v>
@@ -14590,7 +14644,7 @@
         <v>98</v>
       </c>
       <c r="E55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F55">
         <v>17.137375354543799</v>
@@ -14719,7 +14773,7 @@
         <v>103</v>
       </c>
       <c r="E56" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F56">
         <v>14.907122076007299</v>
@@ -14814,7 +14868,7 @@
         <v>-127.00310749185384</v>
       </c>
       <c r="AJ56" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AK56">
         <v>33</v>
@@ -14843,7 +14897,7 @@
         <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F57">
         <v>14.148097629009399</v>
@@ -14972,7 +15026,7 @@
         <v>103</v>
       </c>
       <c r="E58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F58">
         <v>14.0519372373839</v>
@@ -15093,7 +15147,7 @@
         <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F59">
         <v>13.590036097075499</v>
@@ -15219,10 +15273,10 @@
         <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E60" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F60">
         <v>13.1995264462601</v>
@@ -15340,10 +15394,10 @@
         <v>48</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E61" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F61">
         <v>13.546359498496599</v>
@@ -15461,10 +15515,10 @@
         <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E62" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F62">
         <v>13.464862974785801</v>
@@ -15590,10 +15644,10 @@
         <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E63" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F63">
         <v>13.621974021129599</v>
@@ -15714,7 +15768,7 @@
         <v>103</v>
       </c>
       <c r="E64" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F64">
         <v>14.5640411795452</v>
@@ -15835,7 +15889,7 @@
         <v>103</v>
       </c>
       <c r="E65" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F65">
         <v>14.318200806400201</v>
@@ -15964,7 +16018,7 @@
         <v>98</v>
       </c>
       <c r="E66" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F66">
         <v>16.4033807412276</v>
@@ -16085,7 +16139,7 @@
         <v>98</v>
       </c>
       <c r="E67" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F67">
         <v>16.755734755293901</v>
@@ -16193,40 +16247,378 @@
       </c>
     </row>
     <row r="68" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="V68" s="14"/>
-      <c r="X68" s="66"/>
-      <c r="Y68" s="66"/>
-      <c r="Z68" s="44"/>
-      <c r="AA68" s="44"/>
-      <c r="AB68" s="44"/>
-      <c r="AC68" s="44"/>
-      <c r="AD68" s="44"/>
-      <c r="AE68" s="44"/>
-      <c r="AF68" s="44"/>
-      <c r="AG68" s="45"/>
+      <c r="A68">
+        <v>5788</v>
+      </c>
+      <c r="B68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" t="s">
+        <v>252</v>
+      </c>
+      <c r="F68">
+        <v>16.427603242176598</v>
+      </c>
+      <c r="G68">
+        <v>16.294129661146201</v>
+      </c>
+      <c r="H68">
+        <v>3.9017153422996101E-3</v>
+      </c>
+      <c r="I68">
+        <v>31.754897773594099</v>
+      </c>
+      <c r="J68">
+        <v>31.2611366411513</v>
+      </c>
+      <c r="K68">
+        <v>1.69688798119081E-3</v>
+      </c>
+      <c r="L68">
+        <v>-0.21175048538171601</v>
+      </c>
+      <c r="M68">
+        <v>3.8058114135400599E-3</v>
+      </c>
+      <c r="N68">
+        <v>6.0651323786762701</v>
+      </c>
+      <c r="O68">
+        <v>3.8619373872110499E-3</v>
+      </c>
+      <c r="P68">
+        <v>11.2269898790494</v>
+      </c>
+      <c r="Q68">
+        <v>1.66312651297754E-3</v>
+      </c>
+      <c r="R68">
+        <v>14.8967353916329</v>
+      </c>
+      <c r="S68">
+        <v>0.152433955843884</v>
+      </c>
+      <c r="T68">
+        <v>346.34669808464002</v>
+      </c>
+      <c r="U68">
+        <v>0.10019365211900701</v>
+      </c>
+      <c r="V68" s="14">
+        <v>45834.525243055556</v>
+      </c>
+      <c r="W68">
+        <v>2.5</v>
+      </c>
+      <c r="X68">
+        <v>2.9567081130304401E-2</v>
+      </c>
+      <c r="Y68">
+        <v>2.7586414933460701E-2</v>
+      </c>
+      <c r="Z68" s="44">
+        <f>((((N68/1000)+1)/(([1]SMOW!$Z$4/1000)+1))-1)*1000</f>
+        <v>16.572658764589576</v>
+      </c>
+      <c r="AA68" s="44">
+        <f>((((P68/1000)+1)/(([1]SMOW!$AA$4/1000)+1))-1)*1000</f>
+        <v>31.973200202974894</v>
+      </c>
+      <c r="AB68" s="44">
+        <f>Z68*[1]SMOW!$AN$6</f>
+        <v>17.08666450734783</v>
+      </c>
+      <c r="AC68" s="44">
+        <f>AA68*[1]SMOW!$AN$12</f>
+        <v>32.926625148722088</v>
+      </c>
+      <c r="AD68" s="44">
+        <f t="shared" ref="AD68" si="139">LN((AB68/1000)+1)*1000</f>
+        <v>16.942329273859674</v>
+      </c>
+      <c r="AE68" s="44">
+        <f t="shared" ref="AE68" si="140">LN((AC68/1000)+1)*1000</f>
+        <v>32.396156780928692</v>
+      </c>
+      <c r="AF68" s="44">
+        <f>(AD68-[1]SMOW!AN$14*AE68)</f>
+        <v>-0.16284150647067719</v>
+      </c>
+      <c r="AG68" s="45">
+        <f t="shared" ref="AG68" si="141">AF68*1000</f>
+        <v>-162.84150647067719</v>
+      </c>
+      <c r="AH68" s="2">
+        <f>AVERAGE(AG66:AG68)</f>
+        <v>-163.88499920465449</v>
+      </c>
+      <c r="AI68">
+        <f>STDEV(AG66:AG68)</f>
+        <v>2.2389611688135127</v>
+      </c>
+      <c r="AK68">
+        <v>33</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="V69" s="14"/>
-      <c r="Z69" s="44"/>
-      <c r="AA69" s="44"/>
-      <c r="AB69" s="44"/>
-      <c r="AC69" s="44"/>
-      <c r="AD69" s="44"/>
-      <c r="AE69" s="44"/>
-      <c r="AF69" s="44"/>
-      <c r="AG69" s="45"/>
-      <c r="AH69" s="2"/>
+      <c r="A69">
+        <v>5789</v>
+      </c>
+      <c r="B69" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" t="s">
+        <v>253</v>
+      </c>
+      <c r="F69">
+        <v>5.72516979252525</v>
+      </c>
+      <c r="G69">
+        <v>5.7088430321139896</v>
+      </c>
+      <c r="H69">
+        <v>3.7764966544620001E-3</v>
+      </c>
+      <c r="I69">
+        <v>11.470191394496</v>
+      </c>
+      <c r="J69">
+        <v>11.404907443135</v>
+      </c>
+      <c r="K69">
+        <v>1.56658859456402E-3</v>
+      </c>
+      <c r="L69">
+        <v>-0.31294809786129502</v>
+      </c>
+      <c r="M69">
+        <v>3.9668190713291604E-3</v>
+      </c>
+      <c r="N69">
+        <v>-4.5226260839875199</v>
+      </c>
+      <c r="O69">
+        <v>5.2639643536032199E-3</v>
+      </c>
+      <c r="P69">
+        <v>-8.6541297711496892</v>
+      </c>
+      <c r="Q69">
+        <v>1.5354195771468699E-3</v>
+      </c>
+      <c r="R69">
+        <v>-13.905337650404601</v>
+      </c>
+      <c r="S69">
+        <v>0.15088713645254201</v>
+      </c>
+      <c r="T69">
+        <v>667.540031588548</v>
+      </c>
+      <c r="U69">
+        <v>9.5803945904556806E-2</v>
+      </c>
+      <c r="V69" s="14">
+        <v>45834.785509259258</v>
+      </c>
+      <c r="W69">
+        <v>2.5</v>
+      </c>
+      <c r="X69">
+        <v>2.0478240743663601E-2</v>
+      </c>
+      <c r="Y69">
+        <v>2.0517829871795502E-2</v>
+      </c>
+      <c r="Z69" s="44">
+        <f>((((N69/1000)+1)/(([1]SMOW!$Z$4/1000)+1))-1)*1000</f>
+        <v>5.874319835677877</v>
+      </c>
+      <c r="AA69" s="44">
+        <f>((((P69/1000)+1)/(([1]SMOW!$AA$4/1000)+1))-1)*1000</f>
+        <v>11.684201912405046</v>
+      </c>
+      <c r="AB69" s="44">
+        <f>Z69*[1]SMOW!$AN$6</f>
+        <v>6.0565135423864653</v>
+      </c>
+      <c r="AC69" s="44">
+        <f>AA69*[1]SMOW!$AN$12</f>
+        <v>12.032619008714272</v>
+      </c>
+      <c r="AD69" s="44">
+        <f t="shared" ref="AD69" si="142">LN((AB69/1000)+1)*1000</f>
+        <v>6.0382465831934482</v>
+      </c>
+      <c r="AE69" s="44">
+        <f t="shared" ref="AE69" si="143">LN((AC69/1000)+1)*1000</f>
+        <v>11.960802567876627</v>
+      </c>
+      <c r="AF69" s="44">
+        <f>(AD69-[1]SMOW!AN$14*AE69)</f>
+        <v>-0.27705717264541097</v>
+      </c>
+      <c r="AG69" s="45">
+        <f t="shared" ref="AG69" si="144">AF69*1000</f>
+        <v>-277.05717264541096</v>
+      </c>
+      <c r="AK69">
+        <v>33</v>
+      </c>
+      <c r="AL69">
+        <v>3</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="V70" s="14"/>
-      <c r="Z70" s="44"/>
-      <c r="AA70" s="44"/>
-      <c r="AB70" s="44"/>
-      <c r="AC70" s="44"/>
-      <c r="AD70" s="44"/>
-      <c r="AE70" s="44"/>
-      <c r="AF70" s="44"/>
-      <c r="AG70" s="45"/>
+      <c r="A70">
+        <v>5790</v>
+      </c>
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" t="s">
+        <v>254</v>
+      </c>
+      <c r="F70">
+        <v>4.5921777071391201</v>
+      </c>
+      <c r="G70">
+        <v>4.5816654001732804</v>
+      </c>
+      <c r="H70">
+        <v>4.7077800306211297E-3</v>
+      </c>
+      <c r="I70">
+        <v>9.2040562883901398</v>
+      </c>
+      <c r="J70">
+        <v>9.1619570231897391</v>
+      </c>
+      <c r="K70">
+        <v>1.8315919426521101E-3</v>
+      </c>
+      <c r="L70">
+        <v>-0.25584790807090202</v>
+      </c>
+      <c r="M70">
+        <v>4.6733520452369804E-3</v>
+      </c>
+      <c r="N70">
+        <v>-5.6496310926070104</v>
+      </c>
+      <c r="O70">
+        <v>4.6597842528180999E-3</v>
+      </c>
+      <c r="P70">
+        <v>-10.8751776062039</v>
+      </c>
+      <c r="Q70">
+        <v>1.79515038974221E-3</v>
+      </c>
+      <c r="R70">
+        <v>-17.2648036510715</v>
+      </c>
+      <c r="S70">
+        <v>0.127710818613779</v>
+      </c>
+      <c r="T70">
+        <v>790.13594472811201</v>
+      </c>
+      <c r="U70">
+        <v>0.12824842549347801</v>
+      </c>
+      <c r="V70" s="14">
+        <v>45834.988541666666</v>
+      </c>
+      <c r="W70">
+        <v>2.5</v>
+      </c>
+      <c r="X70">
+        <v>9.6155719044865098E-2</v>
+      </c>
+      <c r="Y70">
+        <v>9.5074710302556695E-2</v>
+      </c>
+      <c r="Z70" s="44">
+        <f>((((N70/1000)+1)/(([1]SMOW!$Z$4/1000)+1))-1)*1000</f>
+        <v>4.7355441827094946</v>
+      </c>
+      <c r="AA70" s="44">
+        <f>((((P70/1000)+1)/(([1]SMOW!$AA$4/1000)+1))-1)*1000</f>
+        <v>9.4175873292450252</v>
+      </c>
+      <c r="AB70" s="44">
+        <f>Z70*[1]SMOW!$AN$6</f>
+        <v>4.8824184374427784</v>
+      </c>
+      <c r="AC70" s="44">
+        <f>AA70*[1]SMOW!$AN$12</f>
+        <v>9.6984151047399383</v>
+      </c>
+      <c r="AD70" s="44">
+        <f t="shared" ref="AD70" si="145">LN((AB70/1000)+1)*1000</f>
+        <v>4.8705380867464196</v>
+      </c>
+      <c r="AE70" s="44">
+        <f t="shared" ref="AE70" si="146">LN((AC70/1000)+1)*1000</f>
+        <v>9.6516873574400943</v>
+      </c>
+      <c r="AF70" s="44">
+        <f>(AD70-[1]SMOW!AN$14*AE70)</f>
+        <v>-0.22555283798195003</v>
+      </c>
+      <c r="AG70" s="45">
+        <f t="shared" ref="AG70" si="147">AF70*1000</f>
+        <v>-225.55283798195003</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK70">
+        <v>33</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V71" s="14"/>
@@ -17670,7 +18062,7 @@
       <c r="D209"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C207:C209 C163:C195 C67:C161 C6:C21 C23:C65" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Type</formula1>
     </dataValidation>
@@ -17697,11 +18089,11 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AA26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AB17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
       <selection pane="topRight" activeCell="B35" sqref="B35"/>
       <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
-      <selection pane="bottomRight" activeCell="AF47" sqref="AF47"/>
+      <selection pane="bottomRight" activeCell="AL45" sqref="AL45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18336,7 +18728,7 @@
         <v>32.217698789656502</v>
       </c>
       <c r="AD14" s="44">
-        <f t="shared" ref="AD14:AE26" si="0">LN((AB14/1000)+1)*1000</f>
+        <f t="shared" ref="AD14:AE27" si="0">LN((AB14/1000)+1)*1000</f>
         <v>16.557640413250681</v>
       </c>
       <c r="AE14" s="44">
@@ -18348,7 +18740,7 @@
         <v>-0.18502482405193987</v>
       </c>
       <c r="AG14" s="45">
-        <f t="shared" ref="AG14:AG26" si="1">AF14*1000</f>
+        <f t="shared" ref="AG14:AG27" si="1">AF14*1000</f>
         <v>-185.02482405193987</v>
       </c>
     </row>
@@ -19340,7 +19732,7 @@
         <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F23">
         <v>16.6173026530358</v>
@@ -19461,7 +19853,7 @@
         <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F24">
         <v>17.137375354543799</v>
@@ -19590,7 +19982,7 @@
         <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F25">
         <v>16.4033807412276</v>
@@ -19699,7 +20091,7 @@
         <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F26">
         <v>16.755734755293901</v>
@@ -19795,36 +20187,121 @@
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27" s="14"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="45"/>
+      <c r="A27">
+        <v>5788</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27">
+        <v>16.427603242176598</v>
+      </c>
+      <c r="G27">
+        <v>16.294129661146201</v>
+      </c>
+      <c r="H27">
+        <v>3.9017153422996101E-3</v>
+      </c>
+      <c r="I27">
+        <v>31.754897773594099</v>
+      </c>
+      <c r="J27">
+        <v>31.2611366411513</v>
+      </c>
+      <c r="K27">
+        <v>1.69688798119081E-3</v>
+      </c>
+      <c r="L27">
+        <v>-0.21175048538171601</v>
+      </c>
+      <c r="M27">
+        <v>3.8058114135400599E-3</v>
+      </c>
+      <c r="N27">
+        <v>6.0651323786762701</v>
+      </c>
+      <c r="O27">
+        <v>3.8619373872110499E-3</v>
+      </c>
+      <c r="P27">
+        <v>11.2269898790494</v>
+      </c>
+      <c r="Q27">
+        <v>1.66312651297754E-3</v>
+      </c>
+      <c r="R27">
+        <v>14.8967353916329</v>
+      </c>
+      <c r="S27">
+        <v>0.152433955843884</v>
+      </c>
+      <c r="T27">
+        <v>346.34669808464002</v>
+      </c>
+      <c r="U27">
+        <v>0.10019365211900701</v>
+      </c>
+      <c r="V27" s="14">
+        <v>45834.525243055556</v>
+      </c>
+      <c r="W27">
+        <v>2.5</v>
+      </c>
+      <c r="X27">
+        <v>2.9567081130304401E-2</v>
+      </c>
+      <c r="Y27">
+        <v>2.7586414933460701E-2</v>
+      </c>
+      <c r="Z27" s="44">
+        <f>((((N27/1000)+1)/(([1]SMOW!$Z$4/1000)+1))-1)*1000</f>
+        <v>16.572658764589576</v>
+      </c>
+      <c r="AA27" s="44">
+        <f>((((P27/1000)+1)/(([1]SMOW!$AA$4/1000)+1))-1)*1000</f>
+        <v>31.973200202974894</v>
+      </c>
+      <c r="AB27" s="44">
+        <f>Z27*[1]SMOW!$AN$6</f>
+        <v>17.08666450734783</v>
+      </c>
+      <c r="AC27" s="44">
+        <f>AA27*[1]SMOW!$AN$12</f>
+        <v>32.926625148722088</v>
+      </c>
+      <c r="AD27" s="44">
+        <f t="shared" si="0"/>
+        <v>16.942329273859674</v>
+      </c>
+      <c r="AE27" s="44">
+        <f t="shared" si="0"/>
+        <v>32.396156780928692</v>
+      </c>
+      <c r="AF27" s="44">
+        <f>(AD27-[1]SMOW!AN$14*AE27)</f>
+        <v>-0.16284150647067719</v>
+      </c>
+      <c r="AG27" s="45">
+        <f t="shared" si="1"/>
+        <v>-162.84150647067719</v>
+      </c>
+      <c r="AH27" s="2">
+        <f>AVERAGE(AG25:AG27)</f>
+        <v>-163.88499920465449</v>
+      </c>
+      <c r="AI27">
+        <f>STDEV(AG25:AG27)</f>
+        <v>2.2389611688135127</v>
+      </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B28"/>
@@ -19919,7 +20396,7 @@
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -20043,7 +20520,7 @@
         <v>25.383562400655702</v>
       </c>
       <c r="AD32" s="44">
-        <f t="shared" ref="AD32:AE36" si="2">LN((AB32/1000)+1)*1000</f>
+        <f t="shared" ref="AD32:AE38" si="2">LN((AB32/1000)+1)*1000</f>
         <v>12.909597868184635</v>
       </c>
       <c r="AE32" s="44">
@@ -20055,7 +20532,7 @@
         <v>-0.32564603279616122</v>
       </c>
       <c r="AG32" s="45">
-        <f t="shared" ref="AG32:AG36" si="3">AF32*1000</f>
+        <f t="shared" ref="AG32:AG38" si="3">AF32*1000</f>
         <v>-325.64603279616119</v>
       </c>
       <c r="AK32">
@@ -20573,24 +21050,253 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5789</v>
+      </c>
+      <c r="B37" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37">
+        <v>5.72516979252525</v>
+      </c>
+      <c r="G37">
+        <v>5.7088430321139896</v>
+      </c>
+      <c r="H37">
+        <v>3.7764966544620001E-3</v>
+      </c>
+      <c r="I37">
+        <v>11.470191394496</v>
+      </c>
+      <c r="J37">
+        <v>11.404907443135</v>
+      </c>
+      <c r="K37">
+        <v>1.56658859456402E-3</v>
+      </c>
+      <c r="L37">
+        <v>-0.31294809786129502</v>
+      </c>
+      <c r="M37">
+        <v>3.9668190713291604E-3</v>
+      </c>
+      <c r="N37">
+        <v>-4.5226260839875199</v>
+      </c>
+      <c r="O37">
+        <v>5.2639643536032199E-3</v>
+      </c>
+      <c r="P37">
+        <v>-8.6541297711496892</v>
+      </c>
+      <c r="Q37">
+        <v>1.5354195771468699E-3</v>
+      </c>
+      <c r="R37">
+        <v>-13.905337650404601</v>
+      </c>
+      <c r="S37">
+        <v>0.15088713645254201</v>
+      </c>
+      <c r="T37">
+        <v>667.540031588548</v>
+      </c>
+      <c r="U37">
+        <v>9.5803945904556806E-2</v>
+      </c>
+      <c r="V37" s="14">
+        <v>45834.785509259258</v>
+      </c>
+      <c r="W37">
+        <v>2.5</v>
+      </c>
+      <c r="X37">
+        <v>2.0478240743663601E-2</v>
+      </c>
+      <c r="Y37">
+        <v>2.0517829871795502E-2</v>
+      </c>
+      <c r="Z37" s="44">
+        <f>((((N37/1000)+1)/(([1]SMOW!$Z$4/1000)+1))-1)*1000</f>
+        <v>5.874319835677877</v>
+      </c>
+      <c r="AA37" s="44">
+        <f>((((P37/1000)+1)/(([1]SMOW!$AA$4/1000)+1))-1)*1000</f>
+        <v>11.684201912405046</v>
+      </c>
+      <c r="AB37" s="44">
+        <f>Z37*[1]SMOW!$AN$6</f>
+        <v>6.0565135423864653</v>
+      </c>
+      <c r="AC37" s="44">
+        <f>AA37*[1]SMOW!$AN$12</f>
+        <v>12.032619008714272</v>
+      </c>
+      <c r="AD37" s="44">
+        <f t="shared" si="2"/>
+        <v>6.0382465831934482</v>
+      </c>
+      <c r="AE37" s="44">
+        <f t="shared" si="2"/>
+        <v>11.960802567876627</v>
+      </c>
+      <c r="AF37" s="44">
+        <f>(AD37-[1]SMOW!AN$14*AE37)</f>
+        <v>-0.27705717264541097</v>
+      </c>
+      <c r="AG37" s="45">
+        <f t="shared" si="3"/>
+        <v>-277.05717264541096</v>
+      </c>
+      <c r="AK37">
+        <v>33</v>
+      </c>
+      <c r="AL37">
+        <v>3</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+    </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AG38" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH38" s="2"/>
-      <c r="AI38" s="15"/>
+      <c r="A38">
+        <v>5790</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38">
+        <v>4.5921777071391201</v>
+      </c>
+      <c r="G38">
+        <v>4.5816654001732804</v>
+      </c>
+      <c r="H38">
+        <v>4.7077800306211297E-3</v>
+      </c>
+      <c r="I38">
+        <v>9.2040562883901398</v>
+      </c>
+      <c r="J38">
+        <v>9.1619570231897391</v>
+      </c>
+      <c r="K38">
+        <v>1.8315919426521101E-3</v>
+      </c>
+      <c r="L38">
+        <v>-0.25584790807090202</v>
+      </c>
+      <c r="M38">
+        <v>4.6733520452369804E-3</v>
+      </c>
+      <c r="N38">
+        <v>-5.6496310926070104</v>
+      </c>
+      <c r="O38">
+        <v>4.6597842528180999E-3</v>
+      </c>
+      <c r="P38">
+        <v>-10.8751776062039</v>
+      </c>
+      <c r="Q38">
+        <v>1.79515038974221E-3</v>
+      </c>
+      <c r="R38">
+        <v>-17.2648036510715</v>
+      </c>
+      <c r="S38">
+        <v>0.127710818613779</v>
+      </c>
+      <c r="T38">
+        <v>790.13594472811201</v>
+      </c>
+      <c r="U38">
+        <v>0.12824842549347801</v>
+      </c>
+      <c r="V38" s="14">
+        <v>45834.988541666666</v>
+      </c>
+      <c r="W38">
+        <v>2.5</v>
+      </c>
+      <c r="X38">
+        <v>9.6155719044865098E-2</v>
+      </c>
+      <c r="Y38">
+        <v>9.5074710302556695E-2</v>
+      </c>
+      <c r="Z38" s="44">
+        <f>((((N38/1000)+1)/(([1]SMOW!$Z$4/1000)+1))-1)*1000</f>
+        <v>4.7355441827094946</v>
+      </c>
+      <c r="AA38" s="44">
+        <f>((((P38/1000)+1)/(([1]SMOW!$AA$4/1000)+1))-1)*1000</f>
+        <v>9.4175873292450252</v>
+      </c>
+      <c r="AB38" s="44">
+        <f>Z38*[1]SMOW!$AN$6</f>
+        <v>4.8824184374427784</v>
+      </c>
+      <c r="AC38" s="44">
+        <f>AA38*[1]SMOW!$AN$12</f>
+        <v>9.6984151047399383</v>
+      </c>
+      <c r="AD38" s="44">
+        <f t="shared" si="2"/>
+        <v>4.8705380867464196</v>
+      </c>
+      <c r="AE38" s="44">
+        <f t="shared" si="2"/>
+        <v>9.6516873574400943</v>
+      </c>
+      <c r="AF38" s="44">
+        <f>(AD38-[1]SMOW!AN$14*AE38)</f>
+        <v>-0.22555283798195003</v>
+      </c>
+      <c r="AG38" s="45">
+        <f t="shared" si="3"/>
+        <v>-225.55283798195003</v>
+      </c>
+      <c r="AK38">
+        <v>33</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AG39" t="s">
-        <v>50</v>
-      </c>
       <c r="AH39" s="2"/>
       <c r="AI39" s="15"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AG40" t="s">
-        <v>55</v>
-      </c>
       <c r="AH40" s="2"/>
       <c r="AI40" s="15"/>
     </row>
@@ -20624,10 +21330,10 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C24 C26:C36" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C24 C26:C38" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D19 D23:D35" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D19 D23:D35 D37:D38" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C1)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG39:AG40" xr:uid="{00000000-0002-0000-0100-000002000000}">
@@ -24004,7 +24710,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
